--- a/processed_data/AppxB_ENHANCED.xlsx
+++ b/processed_data/AppxB_ENHANCED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FrankRockwood\Desktop\ASHA_Migration_2023\processed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D08B68E-DB61-446B-A9A1-B28D9B422B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECE5C81-ECC4-49CE-BBB1-06C00D63BDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="28500" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Appx_B" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,6 @@
     <t>Ratios</t>
   </si>
   <si>
-    <t>ACS 2016-2020 (5-Year Data)</t>
-  </si>
-  <si>
     <t>Metro to Metro Domestic Migration</t>
   </si>
   <si>
@@ -2627,6 +2624,9 @@
   </si>
   <si>
     <t>Kapaa</t>
+  </si>
+  <si>
+    <t>American Community Survey 2016-2020 (5-Year Data)</t>
   </si>
 </sst>
 </file>
@@ -2727,6 +2727,8 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2736,8 +2738,6 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3084,7 +3084,7 @@
   <dimension ref="A1:M928"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3103,74 +3103,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="6" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="8" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -3186,7 +3186,7 @@
       <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="4" t="s">
         <v>7</v>
       </c>
@@ -3196,7 +3196,7 @@
       <c r="I5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="9"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="4" t="s">
         <v>7</v>
       </c>
@@ -3209,7 +3209,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C6" s="2">
         <v>4199</v>
@@ -3244,7 +3244,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C7" s="2">
         <v>2911</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2">
         <v>2157</v>
@@ -3314,7 +3314,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C9" s="2">
         <v>1907</v>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C10" s="2">
         <v>1703</v>
@@ -3384,7 +3384,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C11" s="2">
         <v>1524</v>
@@ -3419,7 +3419,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C12" s="2">
         <v>1410</v>
@@ -3454,7 +3454,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2">
         <v>1310</v>
@@ -3489,7 +3489,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C14" s="2">
         <v>1291</v>
@@ -3524,7 +3524,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C15" s="2">
         <v>1202</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>1128</v>
@@ -3594,7 +3594,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="2">
         <v>1040</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C18" s="2">
         <v>1003</v>
@@ -3664,7 +3664,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C19" s="2">
         <v>952</v>
@@ -3699,7 +3699,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" s="2">
         <v>834</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>768</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2">
         <v>752</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" s="2">
         <v>702</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C24" s="2">
         <v>693</v>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C25" s="2">
         <v>656</v>
@@ -3909,7 +3909,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2">
         <v>641</v>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C27" s="2">
         <v>639</v>
@@ -3979,7 +3979,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C28" s="2">
         <v>635</v>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C29" s="2">
         <v>623</v>
@@ -4049,7 +4049,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C30" s="2">
         <v>616</v>
@@ -4084,7 +4084,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C31" s="2">
         <v>603</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C32" s="2">
         <v>510</v>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C33" s="2">
         <v>476</v>
@@ -4189,7 +4189,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C34" s="2">
         <v>475</v>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C35" s="2">
         <v>459</v>
@@ -4259,7 +4259,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C36" s="2">
         <v>455</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C37" s="2">
         <v>429</v>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C38" s="2">
         <v>394</v>
@@ -4364,7 +4364,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C39" s="2">
         <v>385</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C40" s="2">
         <v>365</v>
@@ -4434,7 +4434,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C41" s="2">
         <v>348</v>
@@ -4469,7 +4469,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C42" s="2">
         <v>344</v>
@@ -4504,7 +4504,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C43" s="2">
         <v>343</v>
@@ -4539,7 +4539,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C44" s="2">
         <v>328</v>
@@ -4574,7 +4574,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C45" s="2">
         <v>311</v>
@@ -4609,7 +4609,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C46" s="2">
         <v>305</v>
@@ -4644,7 +4644,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C47" s="2">
         <v>283</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="2">
         <v>252</v>
@@ -4714,7 +4714,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C49" s="2">
         <v>252</v>
@@ -4749,7 +4749,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C50" s="2">
         <v>243</v>
@@ -4784,7 +4784,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C51" s="2">
         <v>226</v>
@@ -4819,7 +4819,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C52" s="2">
         <v>225</v>
@@ -4854,7 +4854,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C53" s="2">
         <v>215</v>
@@ -4889,7 +4889,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C54" s="2">
         <v>214</v>
@@ -4924,7 +4924,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C55" s="2">
         <v>212</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C56" s="2">
         <v>209</v>
@@ -4994,7 +4994,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C57" s="2">
         <v>209</v>
@@ -5029,7 +5029,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C58" s="2">
         <v>208</v>
@@ -5064,7 +5064,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C59" s="2">
         <v>206</v>
@@ -5099,7 +5099,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C60" s="2">
         <v>196</v>
@@ -5134,7 +5134,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C61" s="2">
         <v>195</v>
@@ -5169,7 +5169,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C62" s="2">
         <v>191</v>
@@ -5204,7 +5204,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C63" s="2">
         <v>191</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C64" s="2">
         <v>190</v>
@@ -5274,7 +5274,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C65" s="2">
         <v>190</v>
@@ -5309,7 +5309,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C66" s="2">
         <v>187</v>
@@ -5344,7 +5344,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C67" s="2">
         <v>184</v>
@@ -5379,7 +5379,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C68" s="2">
         <v>182</v>
@@ -5414,7 +5414,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C69" s="2">
         <v>174</v>
@@ -5449,7 +5449,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C70" s="2">
         <v>172</v>
@@ -5484,7 +5484,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C71" s="2">
         <v>165</v>
@@ -5519,7 +5519,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C72" s="2">
         <v>164</v>
@@ -5554,7 +5554,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C73" s="2">
         <v>163</v>
@@ -5589,7 +5589,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C74" s="2">
         <v>160</v>
@@ -5624,7 +5624,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C75" s="2">
         <v>159</v>
@@ -5659,7 +5659,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C76" s="2">
         <v>159</v>
@@ -5694,7 +5694,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C77" s="2">
         <v>158</v>
@@ -5729,7 +5729,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C78" s="2">
         <v>154</v>
@@ -5764,7 +5764,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C79" s="2">
         <v>153</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C80" s="2">
         <v>150</v>
@@ -5834,7 +5834,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C81" s="2">
         <v>142</v>
@@ -5869,7 +5869,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C82" s="2">
         <v>141</v>
@@ -5904,7 +5904,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C83" s="2">
         <v>139</v>
@@ -5939,7 +5939,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C84" s="2">
         <v>139</v>
@@ -5974,7 +5974,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C85" s="2">
         <v>137</v>
@@ -6009,7 +6009,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C86" s="2">
         <v>132</v>
@@ -6044,7 +6044,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C87" s="2">
         <v>132</v>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C88" s="2">
         <v>131</v>
@@ -6114,7 +6114,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C89" s="2">
         <v>129</v>
@@ -6149,7 +6149,7 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C90" s="2">
         <v>128</v>
@@ -6184,7 +6184,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C91" s="2">
         <v>127</v>
@@ -6219,7 +6219,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C92" s="2">
         <v>124</v>
@@ -6254,7 +6254,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C93" s="2">
         <v>124</v>
@@ -6289,7 +6289,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C94" s="2">
         <v>123</v>
@@ -6324,7 +6324,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C95" s="2">
         <v>122</v>
@@ -6359,7 +6359,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C96" s="2">
         <v>119</v>
@@ -6394,7 +6394,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C97" s="2">
         <v>118</v>
@@ -6429,7 +6429,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C98" s="2">
         <v>117</v>
@@ -6464,7 +6464,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C99" s="2">
         <v>113</v>
@@ -6499,7 +6499,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C100" s="2">
         <v>112</v>
@@ -6534,7 +6534,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C101" s="2">
         <v>110</v>
@@ -6569,7 +6569,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C102" s="2">
         <v>108</v>
@@ -6604,7 +6604,7 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C103" s="2">
         <v>98</v>
@@ -6639,7 +6639,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C104" s="2">
         <v>95</v>
@@ -6674,7 +6674,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C105" s="2">
         <v>93</v>
@@ -6709,7 +6709,7 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C106" s="2">
         <v>90</v>
@@ -6744,7 +6744,7 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C107" s="2">
         <v>89</v>
@@ -6779,7 +6779,7 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C108" s="2">
         <v>89</v>
@@ -6814,7 +6814,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C109" s="2">
         <v>85</v>
@@ -6849,7 +6849,7 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C110" s="2">
         <v>84</v>
@@ -6884,7 +6884,7 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C111" s="2">
         <v>84</v>
@@ -6919,7 +6919,7 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C112" s="2">
         <v>83</v>
@@ -6954,7 +6954,7 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C113" s="2">
         <v>81</v>
@@ -6989,7 +6989,7 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C114" s="2">
         <v>81</v>
@@ -7024,7 +7024,7 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C115" s="2">
         <v>80</v>
@@ -7059,7 +7059,7 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C116" s="2">
         <v>80</v>
@@ -7094,7 +7094,7 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C117" s="2">
         <v>79</v>
@@ -7129,7 +7129,7 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C118" s="2">
         <v>79</v>
@@ -7164,7 +7164,7 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C119" s="2">
         <v>78</v>
@@ -7199,7 +7199,7 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C120" s="2">
         <v>78</v>
@@ -7234,7 +7234,7 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C121" s="2">
         <v>75</v>
@@ -7269,7 +7269,7 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C122" s="2">
         <v>74</v>
@@ -7304,7 +7304,7 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C123" s="2">
         <v>73</v>
@@ -7339,7 +7339,7 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C124" s="2">
         <v>72</v>
@@ -7374,7 +7374,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C125" s="2">
         <v>69</v>
@@ -7409,7 +7409,7 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C126" s="2">
         <v>69</v>
@@ -7444,7 +7444,7 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C127" s="2">
         <v>69</v>
@@ -7479,7 +7479,7 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C128" s="2">
         <v>69</v>
@@ -7514,7 +7514,7 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C129" s="2">
         <v>68</v>
@@ -7549,7 +7549,7 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C130" s="2">
         <v>68</v>
@@ -7584,7 +7584,7 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C131" s="2">
         <v>66</v>
@@ -7619,7 +7619,7 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C132" s="2">
         <v>66</v>
@@ -7654,7 +7654,7 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C133" s="2">
         <v>65</v>
@@ -7689,7 +7689,7 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C134" s="2">
         <v>65</v>
@@ -7724,7 +7724,7 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C135" s="2">
         <v>62</v>
@@ -7759,7 +7759,7 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C136" s="2">
         <v>61</v>
@@ -7794,7 +7794,7 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C137" s="2">
         <v>59</v>
@@ -7829,7 +7829,7 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C138" s="2">
         <v>58</v>
@@ -7864,7 +7864,7 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C139" s="2">
         <v>58</v>
@@ -7899,7 +7899,7 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C140" s="2">
         <v>58</v>
@@ -7934,7 +7934,7 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C141" s="2">
         <v>58</v>
@@ -7969,7 +7969,7 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C142" s="2">
         <v>57</v>
@@ -8004,7 +8004,7 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C143" s="2">
         <v>56</v>
@@ -8039,7 +8039,7 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C144" s="2">
         <v>55</v>
@@ -8074,7 +8074,7 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C145" s="2">
         <v>54</v>
@@ -8109,7 +8109,7 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C146" s="2">
         <v>54</v>
@@ -8144,7 +8144,7 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C147" s="2">
         <v>53</v>
@@ -8179,7 +8179,7 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C148" s="2">
         <v>53</v>
@@ -8214,7 +8214,7 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C149" s="2">
         <v>53</v>
@@ -8249,7 +8249,7 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C150" s="2">
         <v>52</v>
@@ -8284,7 +8284,7 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C151" s="2">
         <v>52</v>
@@ -8319,7 +8319,7 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C152" s="2">
         <v>52</v>
@@ -8354,7 +8354,7 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C153" s="2">
         <v>52</v>
@@ -8389,7 +8389,7 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C154" s="2">
         <v>51</v>
@@ -8424,7 +8424,7 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C155" s="2">
         <v>51</v>
@@ -8459,7 +8459,7 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C156" s="2">
         <v>51</v>
@@ -8494,7 +8494,7 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C157" s="2">
         <v>51</v>
@@ -8529,7 +8529,7 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C158" s="2">
         <v>50</v>
@@ -8564,7 +8564,7 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C159" s="2">
         <v>49</v>
@@ -8599,7 +8599,7 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C160" s="2">
         <v>49</v>
@@ -8634,7 +8634,7 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C161" s="2">
         <v>49</v>
@@ -8669,7 +8669,7 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C162" s="2">
         <v>48</v>
@@ -8704,7 +8704,7 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C163" s="2">
         <v>48</v>
@@ -8739,7 +8739,7 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C164" s="2">
         <v>48</v>
@@ -8774,7 +8774,7 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C165" s="2">
         <v>47</v>
@@ -8809,7 +8809,7 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C166" s="2">
         <v>47</v>
@@ -8844,7 +8844,7 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C167" s="2">
         <v>46</v>
@@ -8879,7 +8879,7 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C168" s="2">
         <v>46</v>
@@ -8914,7 +8914,7 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C169" s="2">
         <v>45</v>
@@ -8949,7 +8949,7 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C170" s="2">
         <v>45</v>
@@ -8984,7 +8984,7 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C171" s="2">
         <v>44</v>
@@ -9019,7 +9019,7 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C172" s="2">
         <v>44</v>
@@ -9054,7 +9054,7 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C173" s="2">
         <v>44</v>
@@ -9089,7 +9089,7 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C174" s="2">
         <v>43</v>
@@ -9124,7 +9124,7 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C175" s="2">
         <v>42</v>
@@ -9159,7 +9159,7 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C176" s="2">
         <v>42</v>
@@ -9194,7 +9194,7 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C177" s="2">
         <v>41</v>
@@ -9229,7 +9229,7 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C178" s="2">
         <v>41</v>
@@ -9264,7 +9264,7 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C179" s="2">
         <v>41</v>
@@ -9299,7 +9299,7 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C180" s="2">
         <v>40</v>
@@ -9334,7 +9334,7 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C181" s="2">
         <v>40</v>
@@ -9369,7 +9369,7 @@
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C182" s="2">
         <v>40</v>
@@ -9404,7 +9404,7 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C183" s="2">
         <v>39</v>
@@ -9439,7 +9439,7 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C184" s="2">
         <v>39</v>
@@ -9474,7 +9474,7 @@
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C185" s="2">
         <v>39</v>
@@ -9509,7 +9509,7 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C186" s="2">
         <v>39</v>
@@ -9544,7 +9544,7 @@
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C187" s="2">
         <v>39</v>
@@ -9579,7 +9579,7 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C188" s="2">
         <v>39</v>
@@ -9614,7 +9614,7 @@
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C189" s="2">
         <v>39</v>
@@ -9649,7 +9649,7 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C190" s="2">
         <v>39</v>
@@ -9684,7 +9684,7 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C191" s="2">
         <v>38</v>
@@ -9719,7 +9719,7 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C192" s="2">
         <v>38</v>
@@ -9754,7 +9754,7 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C193" s="2">
         <v>38</v>
@@ -9789,7 +9789,7 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C194" s="2">
         <v>37</v>
@@ -9824,7 +9824,7 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C195" s="2">
         <v>37</v>
@@ -9859,7 +9859,7 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C196" s="2">
         <v>37</v>
@@ -9894,7 +9894,7 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C197" s="2">
         <v>36</v>
@@ -9929,7 +9929,7 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C198" s="2">
         <v>35</v>
@@ -9964,7 +9964,7 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C199" s="2">
         <v>35</v>
@@ -9999,7 +9999,7 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C200" s="2">
         <v>34</v>
@@ -10034,7 +10034,7 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C201" s="2">
         <v>34</v>
@@ -10069,7 +10069,7 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C202" s="2">
         <v>33</v>
@@ -10104,7 +10104,7 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C203" s="2">
         <v>33</v>
@@ -10139,7 +10139,7 @@
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C204" s="2">
         <v>32</v>
@@ -10174,7 +10174,7 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C205" s="2">
         <v>32</v>
@@ -10209,7 +10209,7 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C206" s="2">
         <v>32</v>
@@ -10244,7 +10244,7 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C207" s="2">
         <v>32</v>
@@ -10279,7 +10279,7 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C208" s="2">
         <v>32</v>
@@ -10314,7 +10314,7 @@
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C209" s="2">
         <v>32</v>
@@ -10349,7 +10349,7 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C210" s="2">
         <v>31</v>
@@ -10384,7 +10384,7 @@
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C211" s="2">
         <v>31</v>
@@ -10419,7 +10419,7 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C212" s="2">
         <v>31</v>
@@ -10454,7 +10454,7 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C213" s="2">
         <v>31</v>
@@ -10489,7 +10489,7 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C214" s="2">
         <v>31</v>
@@ -10524,7 +10524,7 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C215" s="2">
         <v>31</v>
@@ -10559,7 +10559,7 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C216" s="2">
         <v>31</v>
@@ -10594,7 +10594,7 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C217" s="2">
         <v>30</v>
@@ -10629,7 +10629,7 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C218" s="2">
         <v>30</v>
@@ -10664,7 +10664,7 @@
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C219" s="2">
         <v>30</v>
@@ -10699,7 +10699,7 @@
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C220" s="2">
         <v>30</v>
@@ -10734,7 +10734,7 @@
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C221" s="2">
         <v>30</v>
@@ -10769,7 +10769,7 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C222" s="2">
         <v>29</v>
@@ -10804,7 +10804,7 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C223" s="2">
         <v>29</v>
@@ -10839,7 +10839,7 @@
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C224" s="2">
         <v>29</v>
@@ -10874,7 +10874,7 @@
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C225" s="2">
         <v>29</v>
@@ -10909,7 +10909,7 @@
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C226" s="2">
         <v>29</v>
@@ -10944,7 +10944,7 @@
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C227" s="2">
         <v>29</v>
@@ -10979,7 +10979,7 @@
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C228" s="2">
         <v>29</v>
@@ -11014,7 +11014,7 @@
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C229" s="2">
         <v>28</v>
@@ -11049,7 +11049,7 @@
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C230" s="2">
         <v>28</v>
@@ -11084,7 +11084,7 @@
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C231" s="2">
         <v>28</v>
@@ -11119,7 +11119,7 @@
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C232" s="2">
         <v>28</v>
@@ -11154,7 +11154,7 @@
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C233" s="2">
         <v>27</v>
@@ -11189,7 +11189,7 @@
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C234" s="2">
         <v>27</v>
@@ -11224,7 +11224,7 @@
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C235" s="2">
         <v>27</v>
@@ -11259,7 +11259,7 @@
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C236" s="2">
         <v>26</v>
@@ -11294,7 +11294,7 @@
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C237" s="2">
         <v>26</v>
@@ -11329,7 +11329,7 @@
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C238" s="2">
         <v>26</v>
@@ -11364,7 +11364,7 @@
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C239" s="2">
         <v>25</v>
@@ -11399,7 +11399,7 @@
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C240" s="2">
         <v>25</v>
@@ -11434,7 +11434,7 @@
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C241" s="2">
         <v>25</v>
@@ -11469,7 +11469,7 @@
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C242" s="2">
         <v>25</v>
@@ -11504,7 +11504,7 @@
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C243" s="2">
         <v>25</v>
@@ -11539,7 +11539,7 @@
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C244" s="2">
         <v>25</v>
@@ -11574,7 +11574,7 @@
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C245" s="2">
         <v>25</v>
@@ -11609,7 +11609,7 @@
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C246" s="2">
         <v>25</v>
@@ -11644,7 +11644,7 @@
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C247" s="2">
         <v>24</v>
@@ -11679,7 +11679,7 @@
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C248" s="2">
         <v>24</v>
@@ -11714,7 +11714,7 @@
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C249" s="2">
         <v>24</v>
@@ -11749,7 +11749,7 @@
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C250" s="2">
         <v>24</v>
@@ -11784,7 +11784,7 @@
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C251" s="2">
         <v>24</v>
@@ -11819,7 +11819,7 @@
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C252" s="2">
         <v>24</v>
@@ -11854,7 +11854,7 @@
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C253" s="2">
         <v>24</v>
@@ -11889,7 +11889,7 @@
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C254" s="2">
         <v>24</v>
@@ -11924,7 +11924,7 @@
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C255" s="2">
         <v>24</v>
@@ -11959,7 +11959,7 @@
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C256" s="2">
         <v>24</v>
@@ -11994,7 +11994,7 @@
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C257" s="2">
         <v>24</v>
@@ -12029,7 +12029,7 @@
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C258" s="2">
         <v>23</v>
@@ -12064,7 +12064,7 @@
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C259" s="2">
         <v>23</v>
@@ -12099,7 +12099,7 @@
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C260" s="2">
         <v>23</v>
@@ -12134,7 +12134,7 @@
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C261" s="2">
         <v>22</v>
@@ -12169,7 +12169,7 @@
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C262" s="2">
         <v>22</v>
@@ -12204,7 +12204,7 @@
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C263" s="2">
         <v>22</v>
@@ -12239,7 +12239,7 @@
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C264" s="2">
         <v>22</v>
@@ -12274,7 +12274,7 @@
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C265" s="2">
         <v>22</v>
@@ -12309,7 +12309,7 @@
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C266" s="2">
         <v>22</v>
@@ -12344,7 +12344,7 @@
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C267" s="2">
         <v>22</v>
@@ -12379,7 +12379,7 @@
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C268" s="2">
         <v>22</v>
@@ -12414,7 +12414,7 @@
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C269" s="2">
         <v>21</v>
@@ -12449,7 +12449,7 @@
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C270" s="2">
         <v>21</v>
@@ -12484,7 +12484,7 @@
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C271" s="2">
         <v>21</v>
@@ -12519,7 +12519,7 @@
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C272" s="2">
         <v>20</v>
@@ -12554,7 +12554,7 @@
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C273" s="2">
         <v>20</v>
@@ -12589,7 +12589,7 @@
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C274" s="2">
         <v>20</v>
@@ -12624,7 +12624,7 @@
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C275" s="2">
         <v>20</v>
@@ -12659,7 +12659,7 @@
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C276" s="2">
         <v>19</v>
@@ -12694,7 +12694,7 @@
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C277" s="2">
         <v>19</v>
@@ -12729,7 +12729,7 @@
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C278" s="2">
         <v>19</v>
@@ -12764,7 +12764,7 @@
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C279" s="2">
         <v>19</v>
@@ -12799,7 +12799,7 @@
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C280" s="2">
         <v>19</v>
@@ -12834,7 +12834,7 @@
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C281" s="2">
         <v>18</v>
@@ -12869,7 +12869,7 @@
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C282" s="2">
         <v>18</v>
@@ -12904,7 +12904,7 @@
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C283" s="2">
         <v>18</v>
@@ -12939,7 +12939,7 @@
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C284" s="2">
         <v>18</v>
@@ -12974,7 +12974,7 @@
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C285" s="2">
         <v>18</v>
@@ -13009,7 +13009,7 @@
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C286" s="2">
         <v>17</v>
@@ -13044,7 +13044,7 @@
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C287" s="2">
         <v>17</v>
@@ -13079,7 +13079,7 @@
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C288" s="2">
         <v>17</v>
@@ -13114,7 +13114,7 @@
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C289" s="2">
         <v>17</v>
@@ -13149,7 +13149,7 @@
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C290" s="2">
         <v>17</v>
@@ -13184,7 +13184,7 @@
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C291" s="2">
         <v>17</v>
@@ -13219,7 +13219,7 @@
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C292" s="2">
         <v>17</v>
@@ -13254,7 +13254,7 @@
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C293" s="2">
         <v>17</v>
@@ -13289,7 +13289,7 @@
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C294" s="2">
         <v>16</v>
@@ -13324,7 +13324,7 @@
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C295" s="2">
         <v>16</v>
@@ -13359,7 +13359,7 @@
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C296" s="2">
         <v>16</v>
@@ -13394,7 +13394,7 @@
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C297" s="2">
         <v>16</v>
@@ -13429,7 +13429,7 @@
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C298" s="2">
         <v>16</v>
@@ -13464,7 +13464,7 @@
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C299" s="2">
         <v>16</v>
@@ -13499,7 +13499,7 @@
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C300" s="2">
         <v>15</v>
@@ -13534,7 +13534,7 @@
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C301" s="2">
         <v>15</v>
@@ -13569,7 +13569,7 @@
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C302" s="2">
         <v>15</v>
@@ -13604,7 +13604,7 @@
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C303" s="2">
         <v>15</v>
@@ -13639,7 +13639,7 @@
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C304" s="2">
         <v>15</v>
@@ -13674,7 +13674,7 @@
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C305" s="2">
         <v>15</v>
@@ -13709,7 +13709,7 @@
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C306" s="2">
         <v>15</v>
@@ -13744,7 +13744,7 @@
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C307" s="2">
         <v>15</v>
@@ -13779,7 +13779,7 @@
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C308" s="2">
         <v>14</v>
@@ -13814,7 +13814,7 @@
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C309" s="2">
         <v>14</v>
@@ -13849,7 +13849,7 @@
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C310" s="2">
         <v>14</v>
@@ -13884,7 +13884,7 @@
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C311" s="2">
         <v>14</v>
@@ -13919,7 +13919,7 @@
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C312" s="2">
         <v>14</v>
@@ -13954,7 +13954,7 @@
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C313" s="2">
         <v>14</v>
@@ -13989,7 +13989,7 @@
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C314" s="2">
         <v>14</v>
@@ -14024,7 +14024,7 @@
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C315" s="2">
         <v>14</v>
@@ -14059,7 +14059,7 @@
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C316" s="2">
         <v>13</v>
@@ -14094,7 +14094,7 @@
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C317" s="2">
         <v>13</v>
@@ -14129,7 +14129,7 @@
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C318" s="2">
         <v>13</v>
@@ -14164,7 +14164,7 @@
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C319" s="2">
         <v>13</v>
@@ -14199,7 +14199,7 @@
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C320" s="2">
         <v>12</v>
@@ -14234,7 +14234,7 @@
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C321" s="2">
         <v>12</v>
@@ -14269,7 +14269,7 @@
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C322" s="2">
         <v>12</v>
@@ -14304,7 +14304,7 @@
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C323" s="2">
         <v>12</v>
@@ -14339,7 +14339,7 @@
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C324" s="2">
         <v>12</v>
@@ -14374,7 +14374,7 @@
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C325" s="2">
         <v>12</v>
@@ -14409,7 +14409,7 @@
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C326" s="2">
         <v>12</v>
@@ -14444,7 +14444,7 @@
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C327" s="2">
         <v>12</v>
@@ -14479,7 +14479,7 @@
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C328" s="2">
         <v>12</v>
@@ -14514,7 +14514,7 @@
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C329" s="2">
         <v>12</v>
@@ -14549,7 +14549,7 @@
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C330" s="2">
         <v>11</v>
@@ -14584,7 +14584,7 @@
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C331" s="2">
         <v>11</v>
@@ -14619,7 +14619,7 @@
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C332" s="2">
         <v>11</v>
@@ -14654,7 +14654,7 @@
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C333" s="2">
         <v>11</v>
@@ -14689,7 +14689,7 @@
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C334" s="2">
         <v>11</v>
@@ -14724,7 +14724,7 @@
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C335" s="2">
         <v>11</v>
@@ -14759,7 +14759,7 @@
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C336" s="2">
         <v>11</v>
@@ -14794,7 +14794,7 @@
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C337" s="2">
         <v>11</v>
@@ -14829,7 +14829,7 @@
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C338" s="2">
         <v>11</v>
@@ -14864,7 +14864,7 @@
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C339" s="2">
         <v>10</v>
@@ -14899,7 +14899,7 @@
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C340" s="2">
         <v>10</v>
@@ -14934,7 +14934,7 @@
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C341" s="2">
         <v>10</v>
@@ -14969,7 +14969,7 @@
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C342" s="2">
         <v>10</v>
@@ -15004,7 +15004,7 @@
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C343" s="2">
         <v>10</v>
@@ -15039,7 +15039,7 @@
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C344" s="2">
         <v>10</v>
@@ -15074,7 +15074,7 @@
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C345" s="2">
         <v>10</v>
@@ -15109,7 +15109,7 @@
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C346" s="2">
         <v>9</v>
@@ -15144,7 +15144,7 @@
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C347" s="2">
         <v>9</v>
@@ -15179,7 +15179,7 @@
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C348" s="2">
         <v>9</v>
@@ -15214,7 +15214,7 @@
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C349" s="2">
         <v>9</v>
@@ -15249,7 +15249,7 @@
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C350" s="2">
         <v>9</v>
@@ -15284,7 +15284,7 @@
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C351" s="2">
         <v>9</v>
@@ -15319,7 +15319,7 @@
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C352" s="2">
         <v>9</v>
@@ -15354,7 +15354,7 @@
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C353" s="2">
         <v>9</v>
@@ -15389,7 +15389,7 @@
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C354" s="2">
         <v>9</v>
@@ -15424,7 +15424,7 @@
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C355" s="2">
         <v>9</v>
@@ -15459,7 +15459,7 @@
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C356" s="2">
         <v>8</v>
@@ -15494,7 +15494,7 @@
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C357" s="2">
         <v>8</v>
@@ -15529,7 +15529,7 @@
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C358" s="2">
         <v>8</v>
@@ -15564,7 +15564,7 @@
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C359" s="2">
         <v>8</v>
@@ -15599,7 +15599,7 @@
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C360" s="2">
         <v>8</v>
@@ -15634,7 +15634,7 @@
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C361" s="2">
         <v>8</v>
@@ -15669,7 +15669,7 @@
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C362" s="2">
         <v>8</v>
@@ -15704,7 +15704,7 @@
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C363" s="2">
         <v>8</v>
@@ -15739,7 +15739,7 @@
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C364" s="2">
         <v>7</v>
@@ -15774,7 +15774,7 @@
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C365" s="2">
         <v>7</v>
@@ -15809,7 +15809,7 @@
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C366" s="2">
         <v>7</v>
@@ -15844,7 +15844,7 @@
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C367" s="2">
         <v>7</v>
@@ -15879,7 +15879,7 @@
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C368" s="2">
         <v>7</v>
@@ -15914,7 +15914,7 @@
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C369" s="2">
         <v>7</v>
@@ -15949,7 +15949,7 @@
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C370" s="2">
         <v>7</v>
@@ -15984,7 +15984,7 @@
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C371" s="2">
         <v>7</v>
@@ -16019,7 +16019,7 @@
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C372" s="2">
         <v>6</v>
@@ -16054,7 +16054,7 @@
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C373" s="2">
         <v>6</v>
@@ -16089,7 +16089,7 @@
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C374" s="2">
         <v>6</v>
@@ -16124,7 +16124,7 @@
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C375" s="2">
         <v>6</v>
@@ -16159,7 +16159,7 @@
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C376" s="2">
         <v>6</v>
@@ -16194,7 +16194,7 @@
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C377" s="2">
         <v>6</v>
@@ -16229,7 +16229,7 @@
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C378" s="2">
         <v>6</v>
@@ -16264,7 +16264,7 @@
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C379" s="2">
         <v>6</v>
@@ -16299,7 +16299,7 @@
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C380" s="2">
         <v>6</v>
@@ -16334,7 +16334,7 @@
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C381" s="2">
         <v>5</v>
@@ -16369,7 +16369,7 @@
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C382" s="2">
         <v>5</v>
@@ -16404,7 +16404,7 @@
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C383" s="2">
         <v>5</v>
@@ -16439,7 +16439,7 @@
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C384" s="2">
         <v>5</v>
@@ -16474,7 +16474,7 @@
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C385" s="2">
         <v>5</v>
@@ -16509,7 +16509,7 @@
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C386" s="2">
         <v>5</v>
@@ -16544,7 +16544,7 @@
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C387" s="2">
         <v>5</v>
@@ -16579,7 +16579,7 @@
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C388" s="2">
         <v>5</v>
@@ -16614,7 +16614,7 @@
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C389" s="2">
         <v>5</v>
@@ -16649,7 +16649,7 @@
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C390" s="2">
         <v>4</v>
@@ -16684,7 +16684,7 @@
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C391" s="2">
         <v>4</v>
@@ -16719,7 +16719,7 @@
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C392" s="2">
         <v>4</v>
@@ -16754,7 +16754,7 @@
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C393" s="2">
         <v>4</v>
@@ -16789,7 +16789,7 @@
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C394" s="2">
         <v>3</v>
@@ -16824,7 +16824,7 @@
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C395" s="2">
         <v>3</v>
@@ -16859,7 +16859,7 @@
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C396" s="2">
         <v>3</v>
@@ -16894,7 +16894,7 @@
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C397" s="2">
         <v>3</v>
@@ -16929,7 +16929,7 @@
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C398" s="2">
         <v>3</v>
@@ -16964,7 +16964,7 @@
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C399" s="2">
         <v>3</v>
@@ -16999,7 +16999,7 @@
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C400" s="2">
         <v>3</v>
@@ -17034,7 +17034,7 @@
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C401" s="2">
         <v>3</v>
@@ -17069,7 +17069,7 @@
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C402" s="2">
         <v>3</v>
@@ -17104,7 +17104,7 @@
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C403" s="2">
         <v>3</v>
@@ -17139,7 +17139,7 @@
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C404" s="2">
         <v>3</v>
@@ -17174,7 +17174,7 @@
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C405" s="2">
         <v>2</v>
@@ -17209,7 +17209,7 @@
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C406" s="2">
         <v>2</v>
@@ -17244,7 +17244,7 @@
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C407" s="2">
         <v>2</v>
@@ -17279,7 +17279,7 @@
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C408" s="2">
         <v>2</v>
@@ -17314,7 +17314,7 @@
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C409" s="2">
         <v>1</v>
@@ -17349,7 +17349,7 @@
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C410" s="2">
         <v>1</v>
@@ -17384,7 +17384,7 @@
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C411" s="2">
         <v>0</v>
@@ -17419,7 +17419,7 @@
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C412" s="2">
         <v>0</v>
@@ -17454,7 +17454,7 @@
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C413" s="2">
         <v>0</v>
@@ -17489,7 +17489,7 @@
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C414" s="2">
         <v>0</v>
@@ -17524,7 +17524,7 @@
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C415" s="2">
         <v>0</v>
@@ -17559,7 +17559,7 @@
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C416" s="2">
         <v>0</v>
@@ -17594,7 +17594,7 @@
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C417" s="2">
         <v>0</v>
@@ -17629,7 +17629,7 @@
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C418" s="2">
         <v>0</v>
@@ -17664,7 +17664,7 @@
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C419" s="2">
         <v>0</v>
@@ -17699,7 +17699,7 @@
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C420" s="2">
         <v>0</v>
@@ -17734,7 +17734,7 @@
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C421" s="2">
         <v>0</v>
@@ -17769,7 +17769,7 @@
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C422" s="2">
         <v>0</v>
@@ -17839,7 +17839,7 @@
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C424" s="2">
         <v>0</v>
@@ -17874,7 +17874,7 @@
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C425" s="2">
         <v>0</v>
@@ -17909,7 +17909,7 @@
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C426" s="2">
         <v>0</v>
@@ -17944,7 +17944,7 @@
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C427" s="2">
         <v>0</v>
@@ -17979,7 +17979,7 @@
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C428" s="2">
         <v>0</v>
@@ -18014,7 +18014,7 @@
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C429" s="2">
         <v>0</v>
@@ -18049,7 +18049,7 @@
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C430" s="2">
         <v>0</v>
@@ -18084,7 +18084,7 @@
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C431" s="2">
         <v>0</v>
@@ -18119,7 +18119,7 @@
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C432" s="2">
         <v>0</v>
@@ -18154,7 +18154,7 @@
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C433" s="2">
         <v>0</v>
@@ -18189,7 +18189,7 @@
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C434" s="2">
         <v>0</v>
@@ -18224,7 +18224,7 @@
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C435" s="2">
         <v>0</v>
@@ -18259,7 +18259,7 @@
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C436" s="2">
         <v>0</v>
@@ -18294,7 +18294,7 @@
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C437" s="2">
         <v>0</v>
@@ -18329,7 +18329,7 @@
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C438" s="2">
         <v>0</v>
@@ -18364,7 +18364,7 @@
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C439" s="2">
         <v>0</v>
@@ -18399,7 +18399,7 @@
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C440" s="2">
         <v>0</v>
@@ -18434,7 +18434,7 @@
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C441" s="2">
         <v>0</v>
@@ -18469,7 +18469,7 @@
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C442" s="2">
         <v>0</v>
@@ -18504,7 +18504,7 @@
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C443" s="2">
         <v>0</v>
@@ -18539,7 +18539,7 @@
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C444" s="2">
         <v>0</v>
@@ -18574,7 +18574,7 @@
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C445" s="2">
         <v>0</v>
@@ -18609,7 +18609,7 @@
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C446" s="2">
         <v>0</v>
@@ -18644,7 +18644,7 @@
     </row>
     <row r="447" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C447" s="2">
         <v>0</v>
@@ -18679,7 +18679,7 @@
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C448" s="2">
         <v>0</v>
@@ -18714,7 +18714,7 @@
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C449" s="2">
         <v>0</v>
@@ -18749,7 +18749,7 @@
     </row>
     <row r="450" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C450" s="2">
         <v>0</v>
@@ -18784,7 +18784,7 @@
     </row>
     <row r="451" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C451" s="2">
         <v>0</v>
@@ -18819,7 +18819,7 @@
     </row>
     <row r="452" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C452" s="2">
         <v>-1</v>
@@ -18854,7 +18854,7 @@
     </row>
     <row r="453" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C453" s="2">
         <v>-1</v>
@@ -18889,7 +18889,7 @@
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C454" s="2">
         <v>-1</v>
@@ -18924,7 +18924,7 @@
     </row>
     <row r="455" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C455" s="2">
         <v>-1</v>
@@ -18959,7 +18959,7 @@
     </row>
     <row r="456" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C456" s="2">
         <v>-1</v>
@@ -18994,7 +18994,7 @@
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C457" s="2">
         <v>-1</v>
@@ -19029,7 +19029,7 @@
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C458" s="2">
         <v>-1</v>
@@ -19064,7 +19064,7 @@
     </row>
     <row r="459" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C459" s="2">
         <v>-2</v>
@@ -19099,7 +19099,7 @@
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C460" s="2">
         <v>-2</v>
@@ -19134,7 +19134,7 @@
     </row>
     <row r="461" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C461" s="2">
         <v>-2</v>
@@ -19169,7 +19169,7 @@
     </row>
     <row r="462" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C462" s="2">
         <v>-2</v>
@@ -19204,7 +19204,7 @@
     </row>
     <row r="463" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C463" s="2">
         <v>-2</v>
@@ -19239,7 +19239,7 @@
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C464" s="2">
         <v>-2</v>
@@ -19274,7 +19274,7 @@
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C465" s="2">
         <v>-2</v>
@@ -19309,7 +19309,7 @@
     </row>
     <row r="466" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C466" s="2">
         <v>-3</v>
@@ -19344,7 +19344,7 @@
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C467" s="2">
         <v>-3</v>
@@ -19379,7 +19379,7 @@
     </row>
     <row r="468" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C468" s="2">
         <v>-3</v>
@@ -19414,7 +19414,7 @@
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C469" s="2">
         <v>-3</v>
@@ -19449,7 +19449,7 @@
     </row>
     <row r="470" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C470" s="2">
         <v>-3</v>
@@ -19484,7 +19484,7 @@
     </row>
     <row r="471" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C471" s="2">
         <v>-4</v>
@@ -19519,7 +19519,7 @@
     </row>
     <row r="472" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C472" s="2">
         <v>-4</v>
@@ -19554,7 +19554,7 @@
     </row>
     <row r="473" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C473" s="2">
         <v>-4</v>
@@ -19589,7 +19589,7 @@
     </row>
     <row r="474" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C474" s="2">
         <v>-4</v>
@@ -19624,7 +19624,7 @@
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C475" s="2">
         <v>-4</v>
@@ -19659,7 +19659,7 @@
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C476" s="2">
         <v>-4</v>
@@ -19694,7 +19694,7 @@
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C477" s="2">
         <v>-4</v>
@@ -19729,7 +19729,7 @@
     </row>
     <row r="478" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C478" s="2">
         <v>-4</v>
@@ -19764,7 +19764,7 @@
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C479" s="2">
         <v>-5</v>
@@ -19799,7 +19799,7 @@
     </row>
     <row r="480" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C480" s="2">
         <v>-5</v>
@@ -19834,7 +19834,7 @@
     </row>
     <row r="481" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C481" s="2">
         <v>-5</v>
@@ -19869,7 +19869,7 @@
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C482" s="2">
         <v>-5</v>
@@ -19904,7 +19904,7 @@
     </row>
     <row r="483" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C483" s="2">
         <v>-5</v>
@@ -19939,7 +19939,7 @@
     </row>
     <row r="484" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C484" s="2">
         <v>-6</v>
@@ -19974,7 +19974,7 @@
     </row>
     <row r="485" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C485" s="2">
         <v>-6</v>
@@ -20009,7 +20009,7 @@
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C486" s="2">
         <v>-6</v>
@@ -20044,7 +20044,7 @@
     </row>
     <row r="487" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C487" s="2">
         <v>-6</v>
@@ -20079,7 +20079,7 @@
     </row>
     <row r="488" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C488" s="2">
         <v>-6</v>
@@ -20114,7 +20114,7 @@
     </row>
     <row r="489" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C489" s="2">
         <v>-6</v>
@@ -20149,7 +20149,7 @@
     </row>
     <row r="490" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C490" s="2">
         <v>-6</v>
@@ -20184,7 +20184,7 @@
     </row>
     <row r="491" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C491" s="2">
         <v>-6</v>
@@ -20219,7 +20219,7 @@
     </row>
     <row r="492" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C492" s="2">
         <v>-6</v>
@@ -20254,7 +20254,7 @@
     </row>
     <row r="493" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C493" s="2">
         <v>-6</v>
@@ -20289,7 +20289,7 @@
     </row>
     <row r="494" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C494" s="2">
         <v>-7</v>
@@ -20324,7 +20324,7 @@
     </row>
     <row r="495" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C495" s="2">
         <v>-7</v>
@@ -20359,7 +20359,7 @@
     </row>
     <row r="496" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C496" s="2">
         <v>-7</v>
@@ -20394,7 +20394,7 @@
     </row>
     <row r="497" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C497" s="2">
         <v>-7</v>
@@ -20429,7 +20429,7 @@
     </row>
     <row r="498" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C498" s="2">
         <v>-7</v>
@@ -20464,7 +20464,7 @@
     </row>
     <row r="499" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C499" s="2">
         <v>-7</v>
@@ -20499,7 +20499,7 @@
     </row>
     <row r="500" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C500" s="2">
         <v>-7</v>
@@ -20534,7 +20534,7 @@
     </row>
     <row r="501" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C501" s="2">
         <v>-8</v>
@@ -20569,7 +20569,7 @@
     </row>
     <row r="502" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C502" s="2">
         <v>-8</v>
@@ -20604,7 +20604,7 @@
     </row>
     <row r="503" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C503" s="2">
         <v>-8</v>
@@ -20639,7 +20639,7 @@
     </row>
     <row r="504" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C504" s="2">
         <v>-8</v>
@@ -20674,7 +20674,7 @@
     </row>
     <row r="505" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C505" s="2">
         <v>-8</v>
@@ -20709,7 +20709,7 @@
     </row>
     <row r="506" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C506" s="2">
         <v>-8</v>
@@ -20744,7 +20744,7 @@
     </row>
     <row r="507" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C507" s="2">
         <v>-9</v>
@@ -20779,7 +20779,7 @@
     </row>
     <row r="508" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C508" s="2">
         <v>-9</v>
@@ -20814,7 +20814,7 @@
     </row>
     <row r="509" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C509" s="2">
         <v>-9</v>
@@ -20849,7 +20849,7 @@
     </row>
     <row r="510" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C510" s="2">
         <v>-9</v>
@@ -20884,7 +20884,7 @@
     </row>
     <row r="511" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C511" s="2">
         <v>-9</v>
@@ -20919,7 +20919,7 @@
     </row>
     <row r="512" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C512" s="2">
         <v>-9</v>
@@ -20954,7 +20954,7 @@
     </row>
     <row r="513" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C513" s="2">
         <v>-9</v>
@@ -20989,7 +20989,7 @@
     </row>
     <row r="514" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C514" s="2">
         <v>-9</v>
@@ -21024,7 +21024,7 @@
     </row>
     <row r="515" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C515" s="2">
         <v>-9</v>
@@ -21059,7 +21059,7 @@
     </row>
     <row r="516" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C516" s="2">
         <v>-9</v>
@@ -21094,7 +21094,7 @@
     </row>
     <row r="517" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C517" s="2">
         <v>-9</v>
@@ -21129,7 +21129,7 @@
     </row>
     <row r="518" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C518" s="2">
         <v>-9</v>
@@ -21164,7 +21164,7 @@
     </row>
     <row r="519" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C519" s="2">
         <v>-9</v>
@@ -21199,7 +21199,7 @@
     </row>
     <row r="520" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C520" s="2">
         <v>-9</v>
@@ -21234,7 +21234,7 @@
     </row>
     <row r="521" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C521" s="2">
         <v>-10</v>
@@ -21269,7 +21269,7 @@
     </row>
     <row r="522" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C522" s="2">
         <v>-10</v>
@@ -21304,7 +21304,7 @@
     </row>
     <row r="523" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C523" s="2">
         <v>-10</v>
@@ -21339,7 +21339,7 @@
     </row>
     <row r="524" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C524" s="2">
         <v>-10</v>
@@ -21374,7 +21374,7 @@
     </row>
     <row r="525" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C525" s="2">
         <v>-10</v>
@@ -21409,7 +21409,7 @@
     </row>
     <row r="526" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C526" s="2">
         <v>-10</v>
@@ -21444,7 +21444,7 @@
     </row>
     <row r="527" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C527" s="2">
         <v>-10</v>
@@ -21479,7 +21479,7 @@
     </row>
     <row r="528" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C528" s="2">
         <v>-10</v>
@@ -21514,7 +21514,7 @@
     </row>
     <row r="529" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C529" s="2">
         <v>-10</v>
@@ -21549,7 +21549,7 @@
     </row>
     <row r="530" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C530" s="2">
         <v>-10</v>
@@ -21584,7 +21584,7 @@
     </row>
     <row r="531" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C531" s="2">
         <v>-11</v>
@@ -21619,7 +21619,7 @@
     </row>
     <row r="532" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C532" s="2">
         <v>-11</v>
@@ -21654,7 +21654,7 @@
     </row>
     <row r="533" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C533" s="2">
         <v>-11</v>
@@ -21689,7 +21689,7 @@
     </row>
     <row r="534" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C534" s="2">
         <v>-11</v>
@@ -21724,7 +21724,7 @@
     </row>
     <row r="535" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C535" s="2">
         <v>-11</v>
@@ -21759,7 +21759,7 @@
     </row>
     <row r="536" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C536" s="2">
         <v>-11</v>
@@ -21794,7 +21794,7 @@
     </row>
     <row r="537" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C537" s="2">
         <v>-11</v>
@@ -21829,7 +21829,7 @@
     </row>
     <row r="538" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C538" s="2">
         <v>-11</v>
@@ -21864,7 +21864,7 @@
     </row>
     <row r="539" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C539" s="2">
         <v>-11</v>
@@ -21899,7 +21899,7 @@
     </row>
     <row r="540" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C540" s="2">
         <v>-11</v>
@@ -21934,7 +21934,7 @@
     </row>
     <row r="541" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C541" s="2">
         <v>-11</v>
@@ -21969,7 +21969,7 @@
     </row>
     <row r="542" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C542" s="2">
         <v>-12</v>
@@ -22004,7 +22004,7 @@
     </row>
     <row r="543" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C543" s="2">
         <v>-12</v>
@@ -22039,7 +22039,7 @@
     </row>
     <row r="544" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C544" s="2">
         <v>-12</v>
@@ -22074,7 +22074,7 @@
     </row>
     <row r="545" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C545" s="2">
         <v>-12</v>
@@ -22109,7 +22109,7 @@
     </row>
     <row r="546" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C546" s="2">
         <v>-12</v>
@@ -22144,7 +22144,7 @@
     </row>
     <row r="547" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C547" s="2">
         <v>-12</v>
@@ -22179,7 +22179,7 @@
     </row>
     <row r="548" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C548" s="2">
         <v>-12</v>
@@ -22214,7 +22214,7 @@
     </row>
     <row r="549" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C549" s="2">
         <v>-12</v>
@@ -22249,7 +22249,7 @@
     </row>
     <row r="550" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C550" s="2">
         <v>-12</v>
@@ -22284,7 +22284,7 @@
     </row>
     <row r="551" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C551" s="2">
         <v>-12</v>
@@ -22319,7 +22319,7 @@
     </row>
     <row r="552" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C552" s="2">
         <v>-13</v>
@@ -22354,7 +22354,7 @@
     </row>
     <row r="553" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C553" s="2">
         <v>-13</v>
@@ -22389,7 +22389,7 @@
     </row>
     <row r="554" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C554" s="2">
         <v>-13</v>
@@ -22424,7 +22424,7 @@
     </row>
     <row r="555" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C555" s="2">
         <v>-14</v>
@@ -22459,7 +22459,7 @@
     </row>
     <row r="556" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C556" s="2">
         <v>-14</v>
@@ -22494,7 +22494,7 @@
     </row>
     <row r="557" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C557" s="2">
         <v>-14</v>
@@ -22529,7 +22529,7 @@
     </row>
     <row r="558" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C558" s="2">
         <v>-14</v>
@@ -22564,7 +22564,7 @@
     </row>
     <row r="559" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C559" s="2">
         <v>-14</v>
@@ -22599,7 +22599,7 @@
     </row>
     <row r="560" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C560" s="2">
         <v>-14</v>
@@ -22634,7 +22634,7 @@
     </row>
     <row r="561" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C561" s="2">
         <v>-15</v>
@@ -22669,7 +22669,7 @@
     </row>
     <row r="562" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C562" s="2">
         <v>-15</v>
@@ -22704,7 +22704,7 @@
     </row>
     <row r="563" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C563" s="2">
         <v>-15</v>
@@ -22739,7 +22739,7 @@
     </row>
     <row r="564" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C564" s="2">
         <v>-15</v>
@@ -22774,7 +22774,7 @@
     </row>
     <row r="565" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C565" s="2">
         <v>-15</v>
@@ -22809,7 +22809,7 @@
     </row>
     <row r="566" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C566" s="2">
         <v>-15</v>
@@ -22844,7 +22844,7 @@
     </row>
     <row r="567" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C567" s="2">
         <v>-15</v>
@@ -22879,7 +22879,7 @@
     </row>
     <row r="568" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C568" s="2">
         <v>-15</v>
@@ -22914,7 +22914,7 @@
     </row>
     <row r="569" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C569" s="2">
         <v>-15</v>
@@ -22949,7 +22949,7 @@
     </row>
     <row r="570" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C570" s="2">
         <v>-15</v>
@@ -22984,7 +22984,7 @@
     </row>
     <row r="571" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C571" s="2">
         <v>-15</v>
@@ -23019,7 +23019,7 @@
     </row>
     <row r="572" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C572" s="2">
         <v>-16</v>
@@ -23054,7 +23054,7 @@
     </row>
     <row r="573" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C573" s="2">
         <v>-16</v>
@@ -23089,7 +23089,7 @@
     </row>
     <row r="574" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C574" s="2">
         <v>-16</v>
@@ -23124,7 +23124,7 @@
     </row>
     <row r="575" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C575" s="2">
         <v>-16</v>
@@ -23159,7 +23159,7 @@
     </row>
     <row r="576" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C576" s="2">
         <v>-17</v>
@@ -23194,7 +23194,7 @@
     </row>
     <row r="577" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C577" s="2">
         <v>-17</v>
@@ -23229,7 +23229,7 @@
     </row>
     <row r="578" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C578" s="2">
         <v>-17</v>
@@ -23264,7 +23264,7 @@
     </row>
     <row r="579" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C579" s="2">
         <v>-17</v>
@@ -23299,7 +23299,7 @@
     </row>
     <row r="580" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C580" s="2">
         <v>-17</v>
@@ -23334,7 +23334,7 @@
     </row>
     <row r="581" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C581" s="2">
         <v>-17</v>
@@ -23369,7 +23369,7 @@
     </row>
     <row r="582" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C582" s="2">
         <v>-18</v>
@@ -23404,7 +23404,7 @@
     </row>
     <row r="583" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C583" s="2">
         <v>-18</v>
@@ -23474,7 +23474,7 @@
     </row>
     <row r="585" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C585" s="2">
         <v>-18</v>
@@ -23509,7 +23509,7 @@
     </row>
     <row r="586" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C586" s="2">
         <v>-18</v>
@@ -23544,7 +23544,7 @@
     </row>
     <row r="587" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C587" s="2">
         <v>-19</v>
@@ -23579,7 +23579,7 @@
     </row>
     <row r="588" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C588" s="2">
         <v>-19</v>
@@ -23614,7 +23614,7 @@
     </row>
     <row r="589" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C589" s="2">
         <v>-19</v>
@@ -23649,7 +23649,7 @@
     </row>
     <row r="590" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C590" s="2">
         <v>-19</v>
@@ -23684,7 +23684,7 @@
     </row>
     <row r="591" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C591" s="2">
         <v>-19</v>
@@ -23719,7 +23719,7 @@
     </row>
     <row r="592" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C592" s="2">
         <v>-19</v>
@@ -23754,7 +23754,7 @@
     </row>
     <row r="593" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C593" s="2">
         <v>-19</v>
@@ -23789,7 +23789,7 @@
     </row>
     <row r="594" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C594" s="2">
         <v>-19</v>
@@ -23824,7 +23824,7 @@
     </row>
     <row r="595" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C595" s="2">
         <v>-20</v>
@@ -23859,7 +23859,7 @@
     </row>
     <row r="596" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C596" s="2">
         <v>-20</v>
@@ -23894,7 +23894,7 @@
     </row>
     <row r="597" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C597" s="2">
         <v>-20</v>
@@ -23929,7 +23929,7 @@
     </row>
     <row r="598" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C598" s="2">
         <v>-20</v>
@@ -23964,7 +23964,7 @@
     </row>
     <row r="599" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C599" s="2">
         <v>-20</v>
@@ -23999,7 +23999,7 @@
     </row>
     <row r="600" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C600" s="2">
         <v>-21</v>
@@ -24034,7 +24034,7 @@
     </row>
     <row r="601" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C601" s="2">
         <v>-21</v>
@@ -24069,7 +24069,7 @@
     </row>
     <row r="602" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C602" s="2">
         <v>-21</v>
@@ -24104,7 +24104,7 @@
     </row>
     <row r="603" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C603" s="2">
         <v>-21</v>
@@ -24139,7 +24139,7 @@
     </row>
     <row r="604" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C604" s="2">
         <v>-21</v>
@@ -24174,7 +24174,7 @@
     </row>
     <row r="605" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C605" s="2">
         <v>-22</v>
@@ -24209,7 +24209,7 @@
     </row>
     <row r="606" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C606" s="2">
         <v>-22</v>
@@ -24244,7 +24244,7 @@
     </row>
     <row r="607" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C607" s="2">
         <v>-22</v>
@@ -24279,7 +24279,7 @@
     </row>
     <row r="608" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C608" s="2">
         <v>-23</v>
@@ -24314,7 +24314,7 @@
     </row>
     <row r="609" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C609" s="2">
         <v>-23</v>
@@ -24349,7 +24349,7 @@
     </row>
     <row r="610" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C610" s="2">
         <v>-23</v>
@@ -24384,7 +24384,7 @@
     </row>
     <row r="611" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C611" s="2">
         <v>-23</v>
@@ -24419,7 +24419,7 @@
     </row>
     <row r="612" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C612" s="2">
         <v>-23</v>
@@ -24454,7 +24454,7 @@
     </row>
     <row r="613" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C613" s="2">
         <v>-23</v>
@@ -24489,7 +24489,7 @@
     </row>
     <row r="614" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C614" s="2">
         <v>-23</v>
@@ -24524,7 +24524,7 @@
     </row>
     <row r="615" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C615" s="2">
         <v>-24</v>
@@ -24559,7 +24559,7 @@
     </row>
     <row r="616" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C616" s="2">
         <v>-24</v>
@@ -24594,7 +24594,7 @@
     </row>
     <row r="617" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C617" s="2">
         <v>-24</v>
@@ -24629,7 +24629,7 @@
     </row>
     <row r="618" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C618" s="2">
         <v>-24</v>
@@ -24664,7 +24664,7 @@
     </row>
     <row r="619" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C619" s="2">
         <v>-24</v>
@@ -24699,7 +24699,7 @@
     </row>
     <row r="620" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C620" s="2">
         <v>-24</v>
@@ -24734,7 +24734,7 @@
     </row>
     <row r="621" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C621" s="2">
         <v>-25</v>
@@ -24769,7 +24769,7 @@
     </row>
     <row r="622" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C622" s="2">
         <v>-25</v>
@@ -24804,7 +24804,7 @@
     </row>
     <row r="623" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C623" s="2">
         <v>-27</v>
@@ -24839,7 +24839,7 @@
     </row>
     <row r="624" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C624" s="2">
         <v>-27</v>
@@ -24874,7 +24874,7 @@
     </row>
     <row r="625" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C625" s="2">
         <v>-27</v>
@@ -24909,7 +24909,7 @@
     </row>
     <row r="626" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C626" s="2">
         <v>-27</v>
@@ -24944,7 +24944,7 @@
     </row>
     <row r="627" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C627" s="2">
         <v>-27</v>
@@ -24979,7 +24979,7 @@
     </row>
     <row r="628" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C628" s="2">
         <v>-28</v>
@@ -25014,7 +25014,7 @@
     </row>
     <row r="629" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C629" s="2">
         <v>-28</v>
@@ -25049,7 +25049,7 @@
     </row>
     <row r="630" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C630" s="2">
         <v>-28</v>
@@ -25084,7 +25084,7 @@
     </row>
     <row r="631" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C631" s="2">
         <v>-28</v>
@@ -25119,7 +25119,7 @@
     </row>
     <row r="632" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C632" s="2">
         <v>-28</v>
@@ -25154,7 +25154,7 @@
     </row>
     <row r="633" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C633" s="2">
         <v>-28</v>
@@ -25189,7 +25189,7 @@
     </row>
     <row r="634" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C634" s="2">
         <v>-29</v>
@@ -25224,7 +25224,7 @@
     </row>
     <row r="635" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C635" s="2">
         <v>-29</v>
@@ -25259,7 +25259,7 @@
     </row>
     <row r="636" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C636" s="2">
         <v>-29</v>
@@ -25294,7 +25294,7 @@
     </row>
     <row r="637" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C637" s="2">
         <v>-30</v>
@@ -25329,7 +25329,7 @@
     </row>
     <row r="638" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C638" s="2">
         <v>-30</v>
@@ -25364,7 +25364,7 @@
     </row>
     <row r="639" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C639" s="2">
         <v>-31</v>
@@ -25399,7 +25399,7 @@
     </row>
     <row r="640" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C640" s="2">
         <v>-31</v>
@@ -25434,7 +25434,7 @@
     </row>
     <row r="641" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C641" s="2">
         <v>-31</v>
@@ -25469,7 +25469,7 @@
     </row>
     <row r="642" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C642" s="2">
         <v>-32</v>
@@ -25504,7 +25504,7 @@
     </row>
     <row r="643" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C643" s="2">
         <v>-32</v>
@@ -25539,7 +25539,7 @@
     </row>
     <row r="644" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C644" s="2">
         <v>-32</v>
@@ -25574,7 +25574,7 @@
     </row>
     <row r="645" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C645" s="2">
         <v>-32</v>
@@ -25609,7 +25609,7 @@
     </row>
     <row r="646" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C646" s="2">
         <v>-32</v>
@@ -25644,7 +25644,7 @@
     </row>
     <row r="647" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C647" s="2">
         <v>-33</v>
@@ -25679,7 +25679,7 @@
     </row>
     <row r="648" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C648" s="2">
         <v>-33</v>
@@ -25714,7 +25714,7 @@
     </row>
     <row r="649" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C649" s="2">
         <v>-34</v>
@@ -25749,7 +25749,7 @@
     </row>
     <row r="650" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C650" s="2">
         <v>-34</v>
@@ -25784,7 +25784,7 @@
     </row>
     <row r="651" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C651" s="2">
         <v>-34</v>
@@ -25819,7 +25819,7 @@
     </row>
     <row r="652" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C652" s="2">
         <v>-35</v>
@@ -25854,7 +25854,7 @@
     </row>
     <row r="653" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C653" s="2">
         <v>-35</v>
@@ -25889,7 +25889,7 @@
     </row>
     <row r="654" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C654" s="2">
         <v>-35</v>
@@ -25924,7 +25924,7 @@
     </row>
     <row r="655" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C655" s="2">
         <v>-35</v>
@@ -25959,7 +25959,7 @@
     </row>
     <row r="656" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C656" s="2">
         <v>-35</v>
@@ -25994,7 +25994,7 @@
     </row>
     <row r="657" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C657" s="2">
         <v>-36</v>
@@ -26029,7 +26029,7 @@
     </row>
     <row r="658" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C658" s="2">
         <v>-37</v>
@@ -26064,7 +26064,7 @@
     </row>
     <row r="659" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C659" s="2">
         <v>-37</v>
@@ -26099,7 +26099,7 @@
     </row>
     <row r="660" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C660" s="2">
         <v>-37</v>
@@ -26134,7 +26134,7 @@
     </row>
     <row r="661" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C661" s="2">
         <v>-37</v>
@@ -26169,7 +26169,7 @@
     </row>
     <row r="662" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C662" s="2">
         <v>-37</v>
@@ -26204,7 +26204,7 @@
     </row>
     <row r="663" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C663" s="2">
         <v>-37</v>
@@ -26239,7 +26239,7 @@
     </row>
     <row r="664" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C664" s="2">
         <v>-38</v>
@@ -26274,7 +26274,7 @@
     </row>
     <row r="665" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C665" s="2">
         <v>-38</v>
@@ -26309,7 +26309,7 @@
     </row>
     <row r="666" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C666" s="2">
         <v>-38</v>
@@ -26344,7 +26344,7 @@
     </row>
     <row r="667" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C667" s="2">
         <v>-38</v>
@@ -26379,7 +26379,7 @@
     </row>
     <row r="668" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C668" s="2">
         <v>-39</v>
@@ -26414,7 +26414,7 @@
     </row>
     <row r="669" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C669" s="2">
         <v>-39</v>
@@ -26449,7 +26449,7 @@
     </row>
     <row r="670" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C670" s="2">
         <v>-39</v>
@@ -26484,7 +26484,7 @@
     </row>
     <row r="671" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C671" s="2">
         <v>-39</v>
@@ -26519,7 +26519,7 @@
     </row>
     <row r="672" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C672" s="2">
         <v>-39</v>
@@ -26554,7 +26554,7 @@
     </row>
     <row r="673" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C673" s="2">
         <v>-40</v>
@@ -26589,7 +26589,7 @@
     </row>
     <row r="674" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C674" s="2">
         <v>-40</v>
@@ -26624,7 +26624,7 @@
     </row>
     <row r="675" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C675" s="2">
         <v>-40</v>
@@ -26659,7 +26659,7 @@
     </row>
     <row r="676" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C676" s="2">
         <v>-40</v>
@@ -26694,7 +26694,7 @@
     </row>
     <row r="677" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C677" s="2">
         <v>-40</v>
@@ -26729,7 +26729,7 @@
     </row>
     <row r="678" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C678" s="2">
         <v>-41</v>
@@ -26764,7 +26764,7 @@
     </row>
     <row r="679" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C679" s="2">
         <v>-41</v>
@@ -26799,7 +26799,7 @@
     </row>
     <row r="680" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C680" s="2">
         <v>-41</v>
@@ -26834,7 +26834,7 @@
     </row>
     <row r="681" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C681" s="2">
         <v>-42</v>
@@ -26869,7 +26869,7 @@
     </row>
     <row r="682" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C682" s="2">
         <v>-42</v>
@@ -26904,7 +26904,7 @@
     </row>
     <row r="683" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C683" s="2">
         <v>-42</v>
@@ -26939,7 +26939,7 @@
     </row>
     <row r="684" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C684" s="2">
         <v>-43</v>
@@ -26974,7 +26974,7 @@
     </row>
     <row r="685" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C685" s="2">
         <v>-43</v>
@@ -27009,7 +27009,7 @@
     </row>
     <row r="686" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C686" s="2">
         <v>-43</v>
@@ -27044,7 +27044,7 @@
     </row>
     <row r="687" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C687" s="2">
         <v>-44</v>
@@ -27079,7 +27079,7 @@
     </row>
     <row r="688" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C688" s="2">
         <v>-44</v>
@@ -27114,7 +27114,7 @@
     </row>
     <row r="689" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C689" s="2">
         <v>-44</v>
@@ -27149,7 +27149,7 @@
     </row>
     <row r="690" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C690" s="2">
         <v>-44</v>
@@ -27184,7 +27184,7 @@
     </row>
     <row r="691" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C691" s="2">
         <v>-44</v>
@@ -27219,7 +27219,7 @@
     </row>
     <row r="692" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C692" s="2">
         <v>-45</v>
@@ -27254,7 +27254,7 @@
     </row>
     <row r="693" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C693" s="2">
         <v>-45</v>
@@ -27289,7 +27289,7 @@
     </row>
     <row r="694" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C694" s="2">
         <v>-46</v>
@@ -27324,7 +27324,7 @@
     </row>
     <row r="695" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C695" s="2">
         <v>-46</v>
@@ -27359,7 +27359,7 @@
     </row>
     <row r="696" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C696" s="2">
         <v>-46</v>
@@ -27394,7 +27394,7 @@
     </row>
     <row r="697" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C697" s="2">
         <v>-46</v>
@@ -27429,7 +27429,7 @@
     </row>
     <row r="698" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C698" s="2">
         <v>-47</v>
@@ -27464,7 +27464,7 @@
     </row>
     <row r="699" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C699" s="2">
         <v>-47</v>
@@ -27499,7 +27499,7 @@
     </row>
     <row r="700" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C700" s="2">
         <v>-47</v>
@@ -27534,7 +27534,7 @@
     </row>
     <row r="701" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C701" s="2">
         <v>-48</v>
@@ -27569,7 +27569,7 @@
     </row>
     <row r="702" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C702" s="2">
         <v>-48</v>
@@ -27604,7 +27604,7 @@
     </row>
     <row r="703" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C703" s="2">
         <v>-49</v>
@@ -27639,7 +27639,7 @@
     </row>
     <row r="704" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C704" s="2">
         <v>-49</v>
@@ -27674,7 +27674,7 @@
     </row>
     <row r="705" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C705" s="2">
         <v>-49</v>
@@ -27709,7 +27709,7 @@
     </row>
     <row r="706" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C706" s="2">
         <v>-49</v>
@@ -27744,7 +27744,7 @@
     </row>
     <row r="707" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C707" s="2">
         <v>-49</v>
@@ -27779,7 +27779,7 @@
     </row>
     <row r="708" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C708" s="2">
         <v>-49</v>
@@ -27814,7 +27814,7 @@
     </row>
     <row r="709" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C709" s="2">
         <v>-49</v>
@@ -27849,7 +27849,7 @@
     </row>
     <row r="710" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C710" s="2">
         <v>-49</v>
@@ -27884,7 +27884,7 @@
     </row>
     <row r="711" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C711" s="2">
         <v>-49</v>
@@ -27919,7 +27919,7 @@
     </row>
     <row r="712" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C712" s="2">
         <v>-50</v>
@@ -27954,7 +27954,7 @@
     </row>
     <row r="713" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C713" s="2">
         <v>-50</v>
@@ -27989,7 +27989,7 @@
     </row>
     <row r="714" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C714" s="2">
         <v>-51</v>
@@ -28024,7 +28024,7 @@
     </row>
     <row r="715" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C715" s="2">
         <v>-51</v>
@@ -28059,7 +28059,7 @@
     </row>
     <row r="716" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C716" s="2">
         <v>-51</v>
@@ -28094,7 +28094,7 @@
     </row>
     <row r="717" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C717" s="2">
         <v>-52</v>
@@ -28164,7 +28164,7 @@
     </row>
     <row r="719" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C719" s="2">
         <v>-53</v>
@@ -28199,7 +28199,7 @@
     </row>
     <row r="720" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C720" s="2">
         <v>-53</v>
@@ -28234,7 +28234,7 @@
     </row>
     <row r="721" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C721" s="2">
         <v>-54</v>
@@ -28269,7 +28269,7 @@
     </row>
     <row r="722" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C722" s="2">
         <v>-54</v>
@@ -28304,7 +28304,7 @@
     </row>
     <row r="723" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C723" s="2">
         <v>-55</v>
@@ -28339,7 +28339,7 @@
     </row>
     <row r="724" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C724" s="2">
         <v>-55</v>
@@ -28374,7 +28374,7 @@
     </row>
     <row r="725" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C725" s="2">
         <v>-55</v>
@@ -28409,7 +28409,7 @@
     </row>
     <row r="726" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C726" s="2">
         <v>-55</v>
@@ -28444,7 +28444,7 @@
     </row>
     <row r="727" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C727" s="2">
         <v>-55</v>
@@ -28479,7 +28479,7 @@
     </row>
     <row r="728" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C728" s="2">
         <v>-55</v>
@@ -28514,7 +28514,7 @@
     </row>
     <row r="729" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C729" s="2">
         <v>-55</v>
@@ -28549,7 +28549,7 @@
     </row>
     <row r="730" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C730" s="2">
         <v>-56</v>
@@ -28584,7 +28584,7 @@
     </row>
     <row r="731" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C731" s="2">
         <v>-56</v>
@@ -28619,7 +28619,7 @@
     </row>
     <row r="732" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C732" s="2">
         <v>-57</v>
@@ -28654,7 +28654,7 @@
     </row>
     <row r="733" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C733" s="2">
         <v>-58</v>
@@ -28689,7 +28689,7 @@
     </row>
     <row r="734" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C734" s="2">
         <v>-58</v>
@@ -28724,7 +28724,7 @@
     </row>
     <row r="735" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C735" s="2">
         <v>-58</v>
@@ -28759,7 +28759,7 @@
     </row>
     <row r="736" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C736" s="2">
         <v>-58</v>
@@ -28794,7 +28794,7 @@
     </row>
     <row r="737" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C737" s="2">
         <v>-58</v>
@@ -28829,7 +28829,7 @@
     </row>
     <row r="738" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C738" s="2">
         <v>-58</v>
@@ -28864,7 +28864,7 @@
     </row>
     <row r="739" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C739" s="2">
         <v>-59</v>
@@ -28899,7 +28899,7 @@
     </row>
     <row r="740" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C740" s="2">
         <v>-59</v>
@@ -28934,7 +28934,7 @@
     </row>
     <row r="741" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C741" s="2">
         <v>-59</v>
@@ -28969,7 +28969,7 @@
     </row>
     <row r="742" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C742" s="2">
         <v>-60</v>
@@ -29004,7 +29004,7 @@
     </row>
     <row r="743" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C743" s="2">
         <v>-60</v>
@@ -29039,7 +29039,7 @@
     </row>
     <row r="744" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C744" s="2">
         <v>-60</v>
@@ -29074,7 +29074,7 @@
     </row>
     <row r="745" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C745" s="2">
         <v>-60</v>
@@ -29109,7 +29109,7 @@
     </row>
     <row r="746" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C746" s="2">
         <v>-61</v>
@@ -29144,7 +29144,7 @@
     </row>
     <row r="747" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C747" s="2">
         <v>-61</v>
@@ -29179,7 +29179,7 @@
     </row>
     <row r="748" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C748" s="2">
         <v>-61</v>
@@ -29214,7 +29214,7 @@
     </row>
     <row r="749" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C749" s="2">
         <v>-61</v>
@@ -29249,7 +29249,7 @@
     </row>
     <row r="750" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C750" s="2">
         <v>-61</v>
@@ -29284,7 +29284,7 @@
     </row>
     <row r="751" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C751" s="2">
         <v>-61</v>
@@ -29319,7 +29319,7 @@
     </row>
     <row r="752" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C752" s="2">
         <v>-61</v>
@@ -29354,7 +29354,7 @@
     </row>
     <row r="753" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C753" s="2">
         <v>-61</v>
@@ -29389,7 +29389,7 @@
     </row>
     <row r="754" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C754" s="2">
         <v>-62</v>
@@ -29424,7 +29424,7 @@
     </row>
     <row r="755" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C755" s="2">
         <v>-62</v>
@@ -29459,7 +29459,7 @@
     </row>
     <row r="756" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C756" s="2">
         <v>-62</v>
@@ -29494,7 +29494,7 @@
     </row>
     <row r="757" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C757" s="2">
         <v>-63</v>
@@ -29529,7 +29529,7 @@
     </row>
     <row r="758" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C758" s="2">
         <v>-63</v>
@@ -29564,7 +29564,7 @@
     </row>
     <row r="759" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C759" s="2">
         <v>-66</v>
@@ -29599,7 +29599,7 @@
     </row>
     <row r="760" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C760" s="2">
         <v>-66</v>
@@ -29634,7 +29634,7 @@
     </row>
     <row r="761" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C761" s="2">
         <v>-66</v>
@@ -29669,7 +29669,7 @@
     </row>
     <row r="762" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C762" s="2">
         <v>-67</v>
@@ -29704,7 +29704,7 @@
     </row>
     <row r="763" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C763" s="2">
         <v>-67</v>
@@ -29739,7 +29739,7 @@
     </row>
     <row r="764" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C764" s="2">
         <v>-68</v>
@@ -29774,7 +29774,7 @@
     </row>
     <row r="765" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C765" s="2">
         <v>-68</v>
@@ -29809,7 +29809,7 @@
     </row>
     <row r="766" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C766" s="2">
         <v>-68</v>
@@ -29844,7 +29844,7 @@
     </row>
     <row r="767" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C767" s="2">
         <v>-68</v>
@@ -29879,7 +29879,7 @@
     </row>
     <row r="768" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C768" s="2">
         <v>-69</v>
@@ -29914,7 +29914,7 @@
     </row>
     <row r="769" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C769" s="2">
         <v>-69</v>
@@ -29949,7 +29949,7 @@
     </row>
     <row r="770" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C770" s="2">
         <v>-70</v>
@@ -29984,7 +29984,7 @@
     </row>
     <row r="771" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C771" s="2">
         <v>-70</v>
@@ -30019,7 +30019,7 @@
     </row>
     <row r="772" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C772" s="2">
         <v>-72</v>
@@ -30054,7 +30054,7 @@
     </row>
     <row r="773" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C773" s="2">
         <v>-72</v>
@@ -30089,7 +30089,7 @@
     </row>
     <row r="774" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C774" s="2">
         <v>-74</v>
@@ -30124,7 +30124,7 @@
     </row>
     <row r="775" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C775" s="2">
         <v>-75</v>
@@ -30159,7 +30159,7 @@
     </row>
     <row r="776" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C776" s="2">
         <v>-75</v>
@@ -30194,7 +30194,7 @@
     </row>
     <row r="777" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C777" s="2">
         <v>-76</v>
@@ -30229,7 +30229,7 @@
     </row>
     <row r="778" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C778" s="2">
         <v>-77</v>
@@ -30264,7 +30264,7 @@
     </row>
     <row r="779" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C779" s="2">
         <v>-77</v>
@@ -30299,7 +30299,7 @@
     </row>
     <row r="780" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C780" s="2">
         <v>-78</v>
@@ -30334,7 +30334,7 @@
     </row>
     <row r="781" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C781" s="2">
         <v>-79</v>
@@ -30369,7 +30369,7 @@
     </row>
     <row r="782" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C782" s="2">
         <v>-81</v>
@@ -30404,7 +30404,7 @@
     </row>
     <row r="783" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C783" s="2">
         <v>-81</v>
@@ -30439,7 +30439,7 @@
     </row>
     <row r="784" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C784" s="2">
         <v>-81</v>
@@ -30474,7 +30474,7 @@
     </row>
     <row r="785" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C785" s="2">
         <v>-82</v>
@@ -30509,7 +30509,7 @@
     </row>
     <row r="786" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C786" s="2">
         <v>-82</v>
@@ -30544,7 +30544,7 @@
     </row>
     <row r="787" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C787" s="2">
         <v>-83</v>
@@ -30579,7 +30579,7 @@
     </row>
     <row r="788" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C788" s="2">
         <v>-85</v>
@@ -30614,7 +30614,7 @@
     </row>
     <row r="789" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C789" s="2">
         <v>-86</v>
@@ -30649,7 +30649,7 @@
     </row>
     <row r="790" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C790" s="2">
         <v>-87</v>
@@ -30684,7 +30684,7 @@
     </row>
     <row r="791" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C791" s="2">
         <v>-87</v>
@@ -30719,7 +30719,7 @@
     </row>
     <row r="792" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C792" s="2">
         <v>-87</v>
@@ -30754,7 +30754,7 @@
     </row>
     <row r="793" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C793" s="2">
         <v>-88</v>
@@ -30789,7 +30789,7 @@
     </row>
     <row r="794" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C794" s="2">
         <v>-88</v>
@@ -30824,7 +30824,7 @@
     </row>
     <row r="795" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C795" s="2">
         <v>-89</v>
@@ -30859,7 +30859,7 @@
     </row>
     <row r="796" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C796" s="2">
         <v>-89</v>
@@ -30894,7 +30894,7 @@
     </row>
     <row r="797" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C797" s="2">
         <v>-89</v>
@@ -30929,7 +30929,7 @@
     </row>
     <row r="798" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C798" s="2">
         <v>-90</v>
@@ -30964,7 +30964,7 @@
     </row>
     <row r="799" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C799" s="2">
         <v>-90</v>
@@ -30999,7 +30999,7 @@
     </row>
     <row r="800" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C800" s="2">
         <v>-91</v>
@@ -31034,7 +31034,7 @@
     </row>
     <row r="801" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C801" s="2">
         <v>-92</v>
@@ -31069,7 +31069,7 @@
     </row>
     <row r="802" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C802" s="2">
         <v>-92</v>
@@ -31104,7 +31104,7 @@
     </row>
     <row r="803" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C803" s="2">
         <v>-93</v>
@@ -31139,7 +31139,7 @@
     </row>
     <row r="804" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C804" s="2">
         <v>-93</v>
@@ -31174,7 +31174,7 @@
     </row>
     <row r="805" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C805" s="2">
         <v>-94</v>
@@ -31209,7 +31209,7 @@
     </row>
     <row r="806" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C806" s="2">
         <v>-95</v>
@@ -31244,7 +31244,7 @@
     </row>
     <row r="807" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C807" s="2">
         <v>-97</v>
@@ -31279,7 +31279,7 @@
     </row>
     <row r="808" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C808" s="2">
         <v>-97</v>
@@ -31314,7 +31314,7 @@
     </row>
     <row r="809" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C809" s="2">
         <v>-97</v>
@@ -31349,7 +31349,7 @@
     </row>
     <row r="810" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C810" s="2">
         <v>-98</v>
@@ -31384,7 +31384,7 @@
     </row>
     <row r="811" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C811" s="2">
         <v>-99</v>
@@ -31419,7 +31419,7 @@
     </row>
     <row r="812" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C812" s="2">
         <v>-99</v>
@@ -31454,7 +31454,7 @@
     </row>
     <row r="813" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C813" s="2">
         <v>-100</v>
@@ -31489,7 +31489,7 @@
     </row>
     <row r="814" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C814" s="2">
         <v>-100</v>
@@ -31524,7 +31524,7 @@
     </row>
     <row r="815" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C815" s="2">
         <v>-101</v>
@@ -31559,7 +31559,7 @@
     </row>
     <row r="816" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C816" s="2">
         <v>-101</v>
@@ -31594,7 +31594,7 @@
     </row>
     <row r="817" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C817" s="2">
         <v>-103</v>
@@ -31629,7 +31629,7 @@
     </row>
     <row r="818" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C818" s="2">
         <v>-105</v>
@@ -31664,7 +31664,7 @@
     </row>
     <row r="819" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C819" s="2">
         <v>-105</v>
@@ -31699,7 +31699,7 @@
     </row>
     <row r="820" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C820" s="2">
         <v>-107</v>
@@ -31734,7 +31734,7 @@
     </row>
     <row r="821" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C821" s="2">
         <v>-108</v>
@@ -31769,7 +31769,7 @@
     </row>
     <row r="822" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C822" s="2">
         <v>-108</v>
@@ -31804,7 +31804,7 @@
     </row>
     <row r="823" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C823" s="2">
         <v>-109</v>
@@ -31839,7 +31839,7 @@
     </row>
     <row r="824" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C824" s="2">
         <v>-111</v>
@@ -31874,7 +31874,7 @@
     </row>
     <row r="825" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C825" s="2">
         <v>-114</v>
@@ -31909,7 +31909,7 @@
     </row>
     <row r="826" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C826" s="2">
         <v>-115</v>
@@ -31944,7 +31944,7 @@
     </row>
     <row r="827" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C827" s="2">
         <v>-115</v>
@@ -31979,7 +31979,7 @@
     </row>
     <row r="828" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C828" s="2">
         <v>-116</v>
@@ -32014,7 +32014,7 @@
     </row>
     <row r="829" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C829" s="2">
         <v>-116</v>
@@ -32049,7 +32049,7 @@
     </row>
     <row r="830" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C830" s="2">
         <v>-117</v>
@@ -32084,7 +32084,7 @@
     </row>
     <row r="831" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C831" s="2">
         <v>-119</v>
@@ -32119,7 +32119,7 @@
     </row>
     <row r="832" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C832" s="2">
         <v>-121</v>
@@ -32154,7 +32154,7 @@
     </row>
     <row r="833" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C833" s="2">
         <v>-121</v>
@@ -32189,7 +32189,7 @@
     </row>
     <row r="834" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C834" s="2">
         <v>-122</v>
@@ -32224,7 +32224,7 @@
     </row>
     <row r="835" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C835" s="2">
         <v>-123</v>
@@ -32259,7 +32259,7 @@
     </row>
     <row r="836" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C836" s="2">
         <v>-124</v>
@@ -32294,7 +32294,7 @@
     </row>
     <row r="837" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C837" s="2">
         <v>-124</v>
@@ -32329,7 +32329,7 @@
     </row>
     <row r="838" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C838" s="2">
         <v>-125</v>
@@ -32364,7 +32364,7 @@
     </row>
     <row r="839" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C839" s="2">
         <v>-125</v>
@@ -32399,7 +32399,7 @@
     </row>
     <row r="840" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C840" s="2">
         <v>-127</v>
@@ -32434,7 +32434,7 @@
     </row>
     <row r="841" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C841" s="2">
         <v>-130</v>
@@ -32469,7 +32469,7 @@
     </row>
     <row r="842" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C842" s="2">
         <v>-130</v>
@@ -32504,7 +32504,7 @@
     </row>
     <row r="843" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C843" s="2">
         <v>-130</v>
@@ -32539,7 +32539,7 @@
     </row>
     <row r="844" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C844" s="2">
         <v>-131</v>
@@ -32574,7 +32574,7 @@
     </row>
     <row r="845" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C845" s="2">
         <v>-131</v>
@@ -32609,7 +32609,7 @@
     </row>
     <row r="846" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C846" s="2">
         <v>-132</v>
@@ -32644,7 +32644,7 @@
     </row>
     <row r="847" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C847" s="2">
         <v>-134</v>
@@ -32679,7 +32679,7 @@
     </row>
     <row r="848" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C848" s="2">
         <v>-137</v>
@@ -32714,7 +32714,7 @@
     </row>
     <row r="849" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C849" s="2">
         <v>-138</v>
@@ -32749,7 +32749,7 @@
     </row>
     <row r="850" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C850" s="2">
         <v>-141</v>
@@ -32784,7 +32784,7 @@
     </row>
     <row r="851" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C851" s="2">
         <v>-142</v>
@@ -32819,7 +32819,7 @@
     </row>
     <row r="852" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C852" s="2">
         <v>-143</v>
@@ -32854,7 +32854,7 @@
     </row>
     <row r="853" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C853" s="2">
         <v>-144</v>
@@ -32889,7 +32889,7 @@
     </row>
     <row r="854" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C854" s="2">
         <v>-147</v>
@@ -32924,7 +32924,7 @@
     </row>
     <row r="855" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C855" s="2">
         <v>-150</v>
@@ -32959,7 +32959,7 @@
     </row>
     <row r="856" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C856" s="2">
         <v>-154</v>
@@ -32994,7 +32994,7 @@
     </row>
     <row r="857" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C857" s="2">
         <v>-157</v>
@@ -33029,7 +33029,7 @@
     </row>
     <row r="858" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C858" s="2">
         <v>-157</v>
@@ -33064,7 +33064,7 @@
     </row>
     <row r="859" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C859" s="2">
         <v>-162</v>
@@ -33099,7 +33099,7 @@
     </row>
     <row r="860" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C860" s="2">
         <v>-163</v>
@@ -33134,7 +33134,7 @@
     </row>
     <row r="861" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C861" s="2">
         <v>-175</v>
@@ -33169,7 +33169,7 @@
     </row>
     <row r="862" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C862" s="2">
         <v>-176</v>
@@ -33204,7 +33204,7 @@
     </row>
     <row r="863" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C863" s="2">
         <v>-178</v>
@@ -33239,7 +33239,7 @@
     </row>
     <row r="864" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C864" s="2">
         <v>-179</v>
@@ -33274,7 +33274,7 @@
     </row>
     <row r="865" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C865" s="2">
         <v>-179</v>
@@ -33309,7 +33309,7 @@
     </row>
     <row r="866" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C866" s="2">
         <v>-184</v>
@@ -33344,7 +33344,7 @@
     </row>
     <row r="867" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C867" s="2">
         <v>-185</v>
@@ -33379,7 +33379,7 @@
     </row>
     <row r="868" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C868" s="2">
         <v>-185</v>
@@ -33414,7 +33414,7 @@
     </row>
     <row r="869" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C869" s="2">
         <v>-187</v>
@@ -33449,7 +33449,7 @@
     </row>
     <row r="870" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C870" s="2">
         <v>-190</v>
@@ -33484,7 +33484,7 @@
     </row>
     <row r="871" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C871" s="2">
         <v>-190</v>
@@ -33519,7 +33519,7 @@
     </row>
     <row r="872" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C872" s="2">
         <v>-193</v>
@@ -33554,7 +33554,7 @@
     </row>
     <row r="873" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C873" s="2">
         <v>-196</v>
@@ -33589,7 +33589,7 @@
     </row>
     <row r="874" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C874" s="2">
         <v>-198</v>
@@ -33624,7 +33624,7 @@
     </row>
     <row r="875" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C875" s="2">
         <v>-198</v>
@@ -33659,7 +33659,7 @@
     </row>
     <row r="876" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C876" s="2">
         <v>-199</v>
@@ -33694,7 +33694,7 @@
     </row>
     <row r="877" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C877" s="2">
         <v>-202</v>
@@ -33729,7 +33729,7 @@
     </row>
     <row r="878" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C878" s="2">
         <v>-202</v>
@@ -33764,7 +33764,7 @@
     </row>
     <row r="879" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C879" s="2">
         <v>-203</v>
@@ -33799,7 +33799,7 @@
     </row>
     <row r="880" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C880" s="2">
         <v>-208</v>
@@ -33834,7 +33834,7 @@
     </row>
     <row r="881" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C881" s="2">
         <v>-208</v>
@@ -33869,7 +33869,7 @@
     </row>
     <row r="882" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C882" s="2">
         <v>-212</v>
@@ -33904,7 +33904,7 @@
     </row>
     <row r="883" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C883" s="2">
         <v>-218</v>
@@ -33939,7 +33939,7 @@
     </row>
     <row r="884" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C884" s="2">
         <v>-222</v>
@@ -33974,7 +33974,7 @@
     </row>
     <row r="885" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C885" s="2">
         <v>-224</v>
@@ -34009,7 +34009,7 @@
     </row>
     <row r="886" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C886" s="2">
         <v>-238</v>
@@ -34044,7 +34044,7 @@
     </row>
     <row r="887" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C887" s="2">
         <v>-241</v>
@@ -34079,7 +34079,7 @@
     </row>
     <row r="888" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C888" s="2">
         <v>-251</v>
@@ -34114,7 +34114,7 @@
     </row>
     <row r="889" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C889" s="2">
         <v>-257</v>
@@ -34149,7 +34149,7 @@
     </row>
     <row r="890" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C890" s="2">
         <v>-260</v>
@@ -34184,7 +34184,7 @@
     </row>
     <row r="891" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C891" s="2">
         <v>-271</v>
@@ -34219,7 +34219,7 @@
     </row>
     <row r="892" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C892" s="2">
         <v>-274</v>
@@ -34254,7 +34254,7 @@
     </row>
     <row r="893" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C893" s="2">
         <v>-282</v>
@@ -34289,7 +34289,7 @@
     </row>
     <row r="894" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C894" s="2">
         <v>-287</v>
@@ -34324,7 +34324,7 @@
     </row>
     <row r="895" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C895" s="2">
         <v>-291</v>
@@ -34359,7 +34359,7 @@
     </row>
     <row r="896" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C896" s="2">
         <v>-304</v>
@@ -34394,7 +34394,7 @@
     </row>
     <row r="897" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C897" s="2">
         <v>-309</v>
@@ -34429,7 +34429,7 @@
     </row>
     <row r="898" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C898" s="2">
         <v>-314</v>
@@ -34464,7 +34464,7 @@
     </row>
     <row r="899" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C899" s="2">
         <v>-314</v>
@@ -34499,7 +34499,7 @@
     </row>
     <row r="900" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C900" s="2">
         <v>-328</v>
@@ -34534,7 +34534,7 @@
     </row>
     <row r="901" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C901" s="2">
         <v>-328</v>
@@ -34569,7 +34569,7 @@
     </row>
     <row r="902" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C902" s="2">
         <v>-329</v>
@@ -34604,7 +34604,7 @@
     </row>
     <row r="903" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C903" s="2">
         <v>-332</v>
@@ -34639,7 +34639,7 @@
     </row>
     <row r="904" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C904" s="2">
         <v>-334</v>
@@ -34674,7 +34674,7 @@
     </row>
     <row r="905" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C905" s="2">
         <v>-336</v>
@@ -34709,7 +34709,7 @@
     </row>
     <row r="906" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C906" s="2">
         <v>-347</v>
@@ -34744,7 +34744,7 @@
     </row>
     <row r="907" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C907" s="2">
         <v>-355</v>
@@ -34779,7 +34779,7 @@
     </row>
     <row r="908" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C908" s="2">
         <v>-370</v>
@@ -34814,7 +34814,7 @@
     </row>
     <row r="909" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C909" s="2">
         <v>-392</v>
@@ -34849,7 +34849,7 @@
     </row>
     <row r="910" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C910" s="2">
         <v>-398</v>
@@ -34884,7 +34884,7 @@
     </row>
     <row r="911" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C911" s="2">
         <v>-404</v>
@@ -34919,7 +34919,7 @@
     </row>
     <row r="912" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C912" s="2">
         <v>-407</v>
@@ -34954,7 +34954,7 @@
     </row>
     <row r="913" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C913" s="2">
         <v>-425</v>
@@ -34989,7 +34989,7 @@
     </row>
     <row r="914" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C914" s="2">
         <v>-440</v>
@@ -35024,7 +35024,7 @@
     </row>
     <row r="915" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C915" s="2">
         <v>-464</v>
@@ -35059,7 +35059,7 @@
     </row>
     <row r="916" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C916" s="2">
         <v>-486</v>
@@ -35094,7 +35094,7 @@
     </row>
     <row r="917" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C917" s="2">
         <v>-492</v>
@@ -35129,7 +35129,7 @@
     </row>
     <row r="918" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C918" s="2">
         <v>-514</v>
@@ -35164,7 +35164,7 @@
     </row>
     <row r="919" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C919" s="2">
         <v>-538</v>
@@ -35199,7 +35199,7 @@
     </row>
     <row r="920" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C920" s="2">
         <v>-540</v>
@@ -35234,7 +35234,7 @@
     </row>
     <row r="921" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C921" s="2">
         <v>-642</v>
@@ -35269,7 +35269,7 @@
     </row>
     <row r="922" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C922" s="2">
         <v>-661</v>
@@ -35304,7 +35304,7 @@
     </row>
     <row r="923" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C923" s="2">
         <v>-698</v>
@@ -35339,7 +35339,7 @@
     </row>
     <row r="924" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C924" s="2">
         <v>-735</v>
@@ -35374,7 +35374,7 @@
     </row>
     <row r="925" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C925" s="2">
         <v>-1162</v>
@@ -35409,7 +35409,7 @@
     </row>
     <row r="926" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C926" s="2">
         <v>-1958</v>
@@ -35444,7 +35444,7 @@
     </row>
     <row r="927" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C927" s="2">
         <v>-2982</v>
@@ -35479,7 +35479,7 @@
     </row>
     <row r="928" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C928" s="2">
         <v>-7934</v>
